--- a/OnBoard/output/trust/bio/Bio_Trust_68.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_68.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q280"/>
+  <dimension ref="A1:Q282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14298,23 +14298,132 @@
         <v>1</v>
       </c>
       <c r="H280">
+        <v>16</v>
+      </c>
+      <c r="I280">
+        <v>3</v>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L280">
+        <v>0</v>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F281">
+        <v>1</v>
+      </c>
+      <c r="G281">
+        <v>1</v>
+      </c>
+      <c r="H281">
         <v>25</v>
       </c>
-      <c r="I280">
+      <c r="I281">
         <v>7</v>
       </c>
-      <c r="J280" t="inlineStr">
+      <c r="J281" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="K280" t="inlineStr">
+      <c r="K281" t="inlineStr">
         <is>
           <t>MEDPF-1</t>
         </is>
       </c>
-      <c r="L280">
-        <v>0</v>
+      <c r="L281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F282">
+        <v>1</v>
+      </c>
+      <c r="G282">
+        <v>1</v>
+      </c>
+      <c r="H282">
+        <v>18</v>
+      </c>
+      <c r="I282">
+        <v>4</v>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L282">
+        <v>0</v>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
       </c>
     </row>
   </sheetData>
